--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasnickel/Developer/Python/Henschke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73BBBC-6230-9247-8FB2-DD053D12C6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647A3E6-015B-9B40-A5FF-80CB69DAECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Timestamp</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>t_E</t>
+  </si>
+  <si>
+    <t>ρ</t>
   </si>
 </sst>
 </file>
@@ -103,11 +106,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -243,7 +247,7 @@
             <c:numRef>
               <c:f>Data!$C$2:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -382,7 +386,7 @@
             <c:numRef>
               <c:f>Data!$D$2:$D$14</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
@@ -397,7 +401,7 @@
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.1</c:v>
@@ -549,7 +553,6 @@
         <c:axId val="22879792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -613,7 +616,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1301,7 +1304,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E1E6EB78-93AC-4049-947C-0A52AA2596CA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="164" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1312,7 +1315,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9307286" cy="6059714"/>
+    <xdr:ext cx="9318625" cy="6080125"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -1641,15 +1644,14 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="E2:G14"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1675,10 +1677,10 @@
         <f>(A2-A$2)*86400</f>
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>0.01</v>
       </c>
     </row>
@@ -1690,10 +1692,10 @@
         <f t="shared" ref="B3:B14" si="0">(A3-A$2)*86400</f>
         <v>37.999999999999993</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>0.85</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -1705,10 +1707,10 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>0.77500000000000002</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -1720,10 +1722,10 @@
         <f t="shared" si="0"/>
         <v>107.00000000000003</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>0.64</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
@@ -1735,11 +1737,11 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D6">
-        <v>0.05</v>
+      <c r="D6" s="4">
+        <v>0.03</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1750,10 +1752,10 @@
         <f t="shared" si="0"/>
         <v>308.99999999999994</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>0.51500000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>0.1</v>
       </c>
     </row>
@@ -1765,10 +1767,10 @@
         <f t="shared" si="0"/>
         <v>376.99999999999994</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0.49</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>0.17499999999999999</v>
       </c>
     </row>
@@ -1780,10 +1782,10 @@
         <f t="shared" si="0"/>
         <v>412</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0.47499999999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="4">
         <v>0.19</v>
       </c>
     </row>
@@ -1795,10 +1797,10 @@
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>0.44</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -1810,10 +1812,10 @@
         <f t="shared" si="0"/>
         <v>631.00000000000011</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0.41</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -1825,10 +1827,10 @@
         <f t="shared" si="0"/>
         <v>775.00000000000011</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0.39500000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4">
         <v>0.35</v>
       </c>
     </row>
@@ -1840,10 +1842,10 @@
         <f t="shared" si="0"/>
         <v>1035.9999999999998</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>0.38</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>0.36</v>
       </c>
     </row>
@@ -1855,10 +1857,10 @@
         <f t="shared" si="0"/>
         <v>1586.9999999999998</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>0.375</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>0.36499999999999999</v>
       </c>
     </row>
@@ -1869,10 +1871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8D33A-7D60-41F1-8E76-471890D6F029}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1880,7 +1882,7 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1902,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1911,6 +1913,21 @@
       </c>
       <c r="C3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>918.8</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <f>C4-B4</f>
+        <v>81.200000000000045</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasnickel/Developer/Python/Henschke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9647A3E6-015B-9B40-A5FF-80CB69DAECD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F741A23F-1D2B-7040-9421-4D4D98CCBE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
+    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" activeTab="1" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Timestamp</t>
-  </si>
-  <si>
-    <t>cm</t>
   </si>
   <si>
     <t>s</t>
@@ -67,7 +64,37 @@
     <t>t_E</t>
   </si>
   <si>
-    <t>ρ</t>
+    <t>m</t>
+  </si>
+  <si>
+    <t>ρ_c</t>
+  </si>
+  <si>
+    <t>kg/m^3</t>
+  </si>
+  <si>
+    <t>ρ_d</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>σ</t>
+  </si>
+  <si>
+    <t>N/m</t>
+  </si>
+  <si>
+    <t>η_c</t>
+  </si>
+  <si>
+    <t>η_d</t>
+  </si>
+  <si>
+    <t>Pas</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699D260-C33C-419A-8D47-B7774150F38A}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1660,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1871,63 +1898,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8D33A-7D60-41F1-8E76-471890D6F029}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1">
-        <v>200</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
+      <c r="C2">
+        <v>0.375</v>
+      </c>
+      <c r="D2">
+        <v>670</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>918.8</v>
+      </c>
+      <c r="G2">
+        <v>0.03</v>
+      </c>
+      <c r="H2">
+        <v>1E-3</v>
+      </c>
+      <c r="I2">
+        <v>4.9140000000000003E-2</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>670</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>918.8</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <f>C4-B4</f>
-        <v>81.200000000000045</v>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasnickel/Developer/Python/Henschke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F741A23F-1D2B-7040-9421-4D4D98CCBE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B4B74C-F9EF-8D48-A180-BCAEFCDD77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16920" yWindow="0" windowWidth="16680" windowHeight="21000" activeTab="1" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Timestamp</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Pas</t>
+  </si>
+  <si>
+    <t>η_v</t>
   </si>
 </sst>
 </file>
@@ -1898,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8D33A-7D60-41F1-8E76-471890D6F029}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1912,7 @@
     <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -1934,8 +1937,11 @@
       <c r="I1" t="s">
         <v>17</v>
       </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1963,8 +1969,11 @@
       <c r="I2">
         <v>4.9140000000000003E-2</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1987,6 +1996,9 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/niklasnickel/Developer/Python/Henschke/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B4B74C-F9EF-8D48-A180-BCAEFCDD77AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E196F8B8-9DC5-B94D-B4F9-AEE5CBEC170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16680" windowHeight="21000" xr2:uid="{E05DA534-964F-48A7-BAA6-64E8E844F20B}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -227,96 +227,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$14</c:f>
+              <c:f>Data!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.999999999999993</c:v>
+                  <c:v>5.9999999999999636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>10.000000000000089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.00000000000003</c:v>
+                  <c:v>13.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192</c:v>
+                  <c:v>18.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>308.99999999999994</c:v>
+                  <c:v>23.999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376.99999999999994</c:v>
+                  <c:v>27.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>412</c:v>
+                  <c:v>32.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>39.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>631.00000000000011</c:v>
+                  <c:v>43.999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>775.00000000000011</c:v>
+                  <c:v>48.999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1035.9999999999998</c:v>
+                  <c:v>53.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1586.9999999999998</c:v>
+                  <c:v>58.999999999999758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.999999999999687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.999999999999631</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.999999999999631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.999999999999574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.000000000000412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.00000000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$14</c:f>
+              <c:f>Data!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85</c:v>
+                  <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.77500000000000002</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.64</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55000000000000004</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51500000000000001</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.49</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47499999999999998</c:v>
+                  <c:v>0.153</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.41</c:v>
+                  <c:v>0.13300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.38</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.375</c:v>
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>9.7000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>8.8999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>7.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>7.6999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>7.3999999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>7.2999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,96 +420,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$14</c:f>
+              <c:f>Data!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.999999999999993</c:v>
+                  <c:v>5.9999999999999636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>10.000000000000089</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>107.00000000000003</c:v>
+                  <c:v>13.999999999999989</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>192</c:v>
+                  <c:v>18.999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>308.99999999999994</c:v>
+                  <c:v>23.999999999999929</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>376.99999999999994</c:v>
+                  <c:v>27.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>412</c:v>
+                  <c:v>32.999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>500</c:v>
+                  <c:v>39.000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>631.00000000000011</c:v>
+                  <c:v>43.999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>775.00000000000011</c:v>
+                  <c:v>48.999999999999964</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1035.9999999999998</c:v>
+                  <c:v>53.999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1586.9999999999998</c:v>
+                  <c:v>58.999999999999758</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>63.999999999999687</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>68.999999999999702</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>73.999999999999631</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>78.999999999999631</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>83.999999999999574</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>89.000000000000398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>94.000000000000412</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99.000000000000341</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>104.00000000000034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$D$2:$D$14</c:f>
+              <c:f>Data!$D$2:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.01</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.03</c:v>
+                  <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.1</c:v>
+                  <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.36499999999999999</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>2.9000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>3.5999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>4.7E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -482,7 +590,6 @@
         <c:axId val="14596224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1600"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -583,6 +690,8 @@
         <c:axId val="22879792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -683,6 +792,7 @@
         <c:crossAx val="14596224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1334,7 +1444,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E1E6EB78-93AC-4049-947C-0A52AA2596CA}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="167" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1345,7 +1455,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9318625" cy="6080125"/>
+    <xdr:ext cx="9300659" cy="6068623"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
@@ -1671,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699D260-C33C-419A-8D47-B7774150F38A}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1701,198 +1811,545 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1.6319444444444445E-3</v>
+        <v>5.9722222222222225E-3</v>
       </c>
       <c r="B2" s="3">
         <f>(A2-A$2)*86400</f>
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="D2" s="4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2.0717592592592593E-3</v>
+        <v>6.0416666666666665E-3</v>
       </c>
       <c r="B3" s="3">
-        <f t="shared" ref="B3:B14" si="0">(A3-A$2)*86400</f>
-        <v>37.999999999999993</v>
+        <f t="shared" ref="B3:B43" si="0">(A3-A$2)*86400</f>
+        <v>5.9999999999999636</v>
       </c>
       <c r="C3" s="4">
-        <v>0.85</v>
+        <v>0.193</v>
       </c>
       <c r="D3" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>6.0879629629629643E-3</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
-        <v>69</v>
+        <v>10.000000000000089</v>
       </c>
       <c r="C4" s="4">
-        <v>0.77500000000000002</v>
+        <v>0.188</v>
       </c>
       <c r="D4" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>2.8703703703703708E-3</v>
+        <v>6.1342592592592594E-3</v>
       </c>
       <c r="B5" s="3">
         <f t="shared" si="0"/>
-        <v>107.00000000000003</v>
+        <v>13.999999999999989</v>
       </c>
       <c r="C5" s="4">
-        <v>0.64</v>
+        <v>0.184</v>
       </c>
       <c r="D5" s="4">
-        <v>1.4999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>3.8541666666666668E-3</v>
+        <v>6.1921296296296299E-3</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>18.999999999999996</v>
       </c>
       <c r="C6" s="4">
-        <v>0.55000000000000004</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="D6" s="4">
-        <v>0.03</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>6.2499999999999995E-3</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
-        <v>308.99999999999994</v>
+        <v>23.999999999999929</v>
       </c>
       <c r="C7" s="4">
-        <v>0.51500000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1</v>
+        <v>1.0999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>5.9953703703703697E-3</v>
+        <v>6.2962962962962964E-3</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
-        <v>376.99999999999994</v>
+        <v>27.999999999999979</v>
       </c>
       <c r="C8" s="4">
-        <v>0.49</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="D8" s="4">
-        <v>0.17499999999999999</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>6.4004629629629628E-3</v>
+        <v>6.3541666666666668E-3</v>
       </c>
       <c r="B9" s="3">
         <f t="shared" si="0"/>
-        <v>412</v>
+        <v>32.999999999999986</v>
       </c>
       <c r="C9" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.153</v>
       </c>
       <c r="D9" s="4">
-        <v>0.19</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>7.4189814814814813E-3</v>
+        <v>6.4236111111111117E-3</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>39.000000000000028</v>
       </c>
       <c r="C10" s="4">
-        <v>0.44</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="D10" s="4">
-        <v>0.28999999999999998</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>8.9351851851851866E-3</v>
+        <v>6.4814814814814813E-3</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
-        <v>631.00000000000011</v>
+        <v>43.999999999999957</v>
       </c>
       <c r="C11" s="4">
-        <v>0.41</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="D11" s="4">
-        <v>0.32500000000000001</v>
+        <v>2.1999999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>1.0601851851851854E-2</v>
+        <v>6.5393518518518517E-3</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
-        <v>775.00000000000011</v>
+        <v>48.999999999999964</v>
       </c>
       <c r="C12" s="4">
-        <v>0.39500000000000002</v>
+        <v>0.124</v>
       </c>
       <c r="D12" s="4">
-        <v>0.35</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>1.3622685185185184E-2</v>
+        <v>6.5972222222222222E-3</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
-        <v>1035.9999999999998</v>
+        <v>53.999999999999972</v>
       </c>
       <c r="C13" s="4">
-        <v>0.38</v>
+        <v>0.114</v>
       </c>
       <c r="D13" s="4">
-        <v>0.36</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>0.02</v>
+      <c r="A14" s="2">
+        <v>6.6550925925925901E-3</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
-        <v>1586.9999999999998</v>
+        <v>58.999999999999758</v>
       </c>
       <c r="C14" s="4">
-        <v>0.375</v>
+        <v>0.106</v>
       </c>
       <c r="D14" s="4">
-        <v>0.36499999999999999</v>
-      </c>
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>6.7129629629629596E-3</v>
+      </c>
+      <c r="B15" s="3">
+        <f>(A15-A$2)*86400</f>
+        <v>63.999999999999687</v>
+      </c>
+      <c r="C15">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="D15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>6.7708333333333301E-3</v>
+      </c>
+      <c r="B16" s="3">
+        <f t="shared" si="0"/>
+        <v>68.999999999999702</v>
+      </c>
+      <c r="C16">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>6.8287037037036997E-3</v>
+      </c>
+      <c r="B17" s="3">
+        <f t="shared" si="0"/>
+        <v>73.999999999999631</v>
+      </c>
+      <c r="C17">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.3000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>6.8865740740740701E-3</v>
+      </c>
+      <c r="B18" s="3">
+        <f t="shared" si="0"/>
+        <v>78.999999999999631</v>
+      </c>
+      <c r="C18">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>6.9444444444444397E-3</v>
+      </c>
+      <c r="B19" s="3">
+        <f t="shared" si="0"/>
+        <v>83.999999999999574</v>
+      </c>
+      <c r="C19">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>7.0023148148148197E-3</v>
+      </c>
+      <c r="B20" s="3">
+        <f t="shared" si="0"/>
+        <v>89.000000000000398</v>
+      </c>
+      <c r="C20">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>7.0601851851851902E-3</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" si="0"/>
+        <v>94.000000000000412</v>
+      </c>
+      <c r="C21">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D21">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>7.1180555555555598E-3</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" si="0"/>
+        <v>99.000000000000341</v>
+      </c>
+      <c r="C22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D22">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>7.1759259259259302E-3</v>
+      </c>
+      <c r="B23" s="3">
+        <f t="shared" si="0"/>
+        <v>104.00000000000034</v>
+      </c>
+      <c r="C23">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>7.2337962962962998E-3</v>
+      </c>
+      <c r="B24" s="3">
+        <f t="shared" si="0"/>
+        <v>109.00000000000028</v>
+      </c>
+      <c r="C24">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D24">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>7.2916666666666703E-3</v>
+      </c>
+      <c r="B25" s="3">
+        <f t="shared" si="0"/>
+        <v>114.00000000000028</v>
+      </c>
+      <c r="C25">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D25">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>7.3495370370370398E-3</v>
+      </c>
+      <c r="B26" s="3">
+        <f t="shared" si="0"/>
+        <v>119.00000000000021</v>
+      </c>
+      <c r="C26">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>7.4074074074074103E-3</v>
+      </c>
+      <c r="B27" s="3">
+        <f t="shared" si="0"/>
+        <v>124.00000000000023</v>
+      </c>
+      <c r="C27">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D27">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>7.4652777777777799E-3</v>
+      </c>
+      <c r="B28" s="3">
+        <f t="shared" si="0"/>
+        <v>129.00000000000014</v>
+      </c>
+      <c r="C28">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D28">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>7.5231481481481503E-3</v>
+      </c>
+      <c r="B29" s="3">
+        <f t="shared" si="0"/>
+        <v>134.00000000000017</v>
+      </c>
+      <c r="C29">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D29">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>7.5810185185185199E-3</v>
+      </c>
+      <c r="B30" s="3">
+        <f t="shared" si="0"/>
+        <v>139.00000000000009</v>
+      </c>
+      <c r="C30">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D30">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>7.6388888888888904E-3</v>
+      </c>
+      <c r="B31" s="3">
+        <f t="shared" si="0"/>
+        <v>144.00000000000011</v>
+      </c>
+      <c r="C31">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>7.69675925925926E-3</v>
+      </c>
+      <c r="B32" s="3">
+        <f t="shared" si="0"/>
+        <v>149.00000000000003</v>
+      </c>
+      <c r="C32">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D32">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>7.7546296296296304E-3</v>
+      </c>
+      <c r="B33" s="3">
+        <f t="shared" si="0"/>
+        <v>154.00000000000003</v>
+      </c>
+      <c r="C33">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D33">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>7.8125E-3</v>
+      </c>
+      <c r="B34" s="3">
+        <f t="shared" si="0"/>
+        <v>158.99999999999997</v>
+      </c>
+      <c r="C34">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D34">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>7.9629629629629634E-3</v>
+      </c>
+      <c r="B35" s="3">
+        <f t="shared" si="0"/>
+        <v>172</v>
+      </c>
+      <c r="C35">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D35">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1903,8 +2360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68C8D33A-7D60-41F1-8E76-471890D6F029}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="174" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView zoomScale="174" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1946,28 +2403,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.19800000000000001</v>
       </c>
       <c r="C2">
-        <v>0.375</v>
+        <v>6.3E-2</v>
       </c>
       <c r="D2">
-        <v>670</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="F2">
-        <v>918.8</v>
+        <v>846</v>
       </c>
       <c r="G2">
-        <v>0.03</v>
+        <v>1.75E-3</v>
       </c>
       <c r="H2">
-        <v>1E-3</v>
+        <v>1.4630000000000001E-3</v>
       </c>
       <c r="I2">
-        <v>4.9140000000000003E-2</v>
+        <v>3.3240000000000001E-3</v>
       </c>
       <c r="J2">
         <v>0</v>
